--- a/Results/Excel/TC06_MakeAppointmentVaccine_Result.xlsx
+++ b/Results/Excel/TC06_MakeAppointmentVaccine_Result.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Project\Results\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAF0A09-8662-4D96-B090-76A4860579CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B664C1-CA12-4D0A-B85C-49E49F4D5B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -167,7 +167,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Mic Shell Dlg"/>
@@ -204,6 +204,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -262,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -296,6 +303,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -603,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -686,14 +696,14 @@
       <c r="H2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>19</v>
+      <c r="J2" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>20</v>
@@ -722,14 +732,14 @@
       <c r="H3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>19</v>
+      <c r="J3" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>20</v>
@@ -758,10 +768,10 @@
       <c r="H4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="7" t="s">
         <v>19</v>
       </c>
       <c r="K4" s="6" t="s">
@@ -794,10 +804,10 @@
       <c r="H5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="K5" s="6" t="s">
@@ -830,10 +840,10 @@
       <c r="H6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="6" t="s">
+      <c r="I6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="12" t="s">
         <v>33</v>
       </c>
       <c r="K6" s="6" t="s">
@@ -868,10 +878,10 @@
       <c r="H7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="6" t="s">
+      <c r="I7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="12" t="s">
         <v>33</v>
       </c>
       <c r="K7" s="6" t="s">
@@ -906,10 +916,10 @@
       <c r="H8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" s="6" t="s">
+      <c r="I8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="12" t="s">
         <v>33</v>
       </c>
       <c r="K8" s="6" t="s">
@@ -944,10 +954,10 @@
       <c r="H9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" s="6" t="s">
+      <c r="I9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="12" t="s">
         <v>33</v>
       </c>
       <c r="K9" s="6" t="s">
@@ -982,10 +992,10 @@
       <c r="H10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" s="6" t="s">
+      <c r="I10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="12" t="s">
         <v>33</v>
       </c>
       <c r="K10" s="6" t="s">
@@ -1020,10 +1030,10 @@
       <c r="H11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" s="6" t="s">
+      <c r="I11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="12" t="s">
         <v>33</v>
       </c>
       <c r="K11" s="6" t="s">
@@ -1035,6 +1045,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Results/Excel/TC06_MakeAppointmentVaccine_Result.xlsx
+++ b/Results/Excel/TC06_MakeAppointmentVaccine_Result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Project\Results\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B664C1-CA12-4D0A-B85C-49E49F4D5B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519B0CEC-4752-483F-B220-33660CF69450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="46">
   <si>
     <t>TDID</t>
   </si>
@@ -82,9 +82,6 @@
     <t>Fail</t>
   </si>
   <si>
-    <t>ควรแสดงข้อความแจ้งเตือนว่า "วันที่เลือกไม่มีคิวให้นัดหมาย กรุณาเลือกวันที่เป็นช่องสีเขียวเท่านั้น"</t>
-  </si>
-  <si>
     <t>TD2</t>
   </si>
   <si>
@@ -100,9 +97,6 @@
     <t>ไม่สามารถเลือกวันในอดีตหรือปัจจุบันได้</t>
   </si>
   <si>
-    <t>ไม่แสดงข้อความแจ้งเตือน</t>
-  </si>
-  <si>
     <t>ควรแสดงข้อความแจ้งเตือนว่า "ไม่สามารถเลือกวันในอดีตหรือปัจจุบันได้"</t>
   </si>
   <si>
@@ -161,6 +155,9 @@
   </si>
   <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>แอปพลิเคชันล้มเหลว</t>
   </si>
 </sst>
 </file>
@@ -613,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -700,18 +697,18 @@
         <v>19</v>
       </c>
       <c r="J2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>13</v>
@@ -723,7 +720,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="6" t="s">
@@ -736,18 +733,18 @@
         <v>19</v>
       </c>
       <c r="J3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>13</v>
@@ -759,14 +756,14 @@
         <v>15</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>19</v>
@@ -778,12 +775,12 @@
         <v>10</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>13</v>
@@ -795,11 +792,11 @@
         <v>15</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>18</v>
@@ -814,12 +811,12 @@
         <v>10</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>13</v>
@@ -831,31 +828,31 @@
         <v>15</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="12" t="s">
+      <c r="L6" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>13</v>
@@ -867,33 +864,33 @@
         <v>15</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>13</v>
@@ -905,33 +902,33 @@
         <v>15</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I8" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>13</v>
@@ -943,33 +940,33 @@
         <v>15</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>13</v>
@@ -981,33 +978,33 @@
         <v>15</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>13</v>
@@ -1019,28 +1016,28 @@
         <v>15</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Excel/TC06_MakeAppointmentVaccine_Result.xlsx
+++ b/Results/Excel/TC06_MakeAppointmentVaccine_Result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Project\Results\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519B0CEC-4752-483F-B220-33660CF69450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780AA1BC-E905-4A23-A4F9-687F6C5C185A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -213,7 +213,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -235,6 +235,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,17 +298,17 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -611,23 +617,23 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.08984375" style="1" customWidth="1"/>
     <col min="5" max="5" width="41.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.453125" style="1" customWidth="1"/>
     <col min="7" max="7" width="60.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="34.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="89.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="66.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
@@ -686,7 +692,7 @@
       <c r="E2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="11"/>
       <c r="G2" s="6" t="s">
         <v>17</v>
       </c>
@@ -696,7 +702,7 @@
       <c r="I2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="10" t="s">
         <v>31</v>
       </c>
       <c r="K2" s="6" t="s">
@@ -722,7 +728,7 @@
       <c r="E3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="10"/>
+      <c r="F3" s="12"/>
       <c r="G3" s="6" t="s">
         <v>17</v>
       </c>
@@ -732,7 +738,7 @@
       <c r="I3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="10" t="s">
         <v>31</v>
       </c>
       <c r="K3" s="6" t="s">
@@ -758,7 +764,7 @@
       <c r="E4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="10"/>
+      <c r="F4" s="12"/>
       <c r="G4" s="2" t="s">
         <v>24</v>
       </c>
@@ -794,7 +800,7 @@
       <c r="E5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="12"/>
       <c r="G5" s="2" t="s">
         <v>24</v>
       </c>
@@ -830,17 +836,17 @@
       <c r="E6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="11"/>
+      <c r="F6" s="9"/>
       <c r="G6" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="12" t="s">
+      <c r="I6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="10" t="s">
         <v>31</v>
       </c>
       <c r="K6" s="6" t="s">
@@ -875,10 +881,10 @@
       <c r="H7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="12" t="s">
+      <c r="I7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="10" t="s">
         <v>31</v>
       </c>
       <c r="K7" s="6" t="s">
@@ -913,10 +919,10 @@
       <c r="H8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="12" t="s">
+      <c r="I8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="10" t="s">
         <v>31</v>
       </c>
       <c r="K8" s="6" t="s">
@@ -951,10 +957,10 @@
       <c r="H9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" s="12" t="s">
+      <c r="I9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="10" t="s">
         <v>31</v>
       </c>
       <c r="K9" s="6" t="s">
@@ -989,10 +995,10 @@
       <c r="H10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" s="12" t="s">
+      <c r="I10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="10" t="s">
         <v>31</v>
       </c>
       <c r="K10" s="6" t="s">
@@ -1027,10 +1033,10 @@
       <c r="H11" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I11" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" s="12" t="s">
+      <c r="I11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="10" t="s">
         <v>31</v>
       </c>
       <c r="K11" s="6" t="s">
